--- a/WIP/Report/Checklists/Manage Calender Event.xlsx
+++ b/WIP/Report/Checklists/Manage Calender Event.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LFMF\WIP\Report\Checklists\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="List Calender Events" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -71,18 +76,6 @@
   </si>
   <si>
     <t>If any of the database columns do not allow null values then the corresponding screen fields must be mandatory. (If any field which initially was mandatory has become optional then check whether null values are allowed in this field.)</t>
-  </si>
-  <si>
-    <t>PARAGRAPHS AND HEADINGS</t>
-  </si>
-  <si>
-    <t>Is each paragraph longer than a single sentence but not longer than one manuscript page?</t>
-  </si>
-  <si>
-    <t>Do the levels of headings accurately reflect the organization of the paper?</t>
-  </si>
-  <si>
-    <t>Do all headings of the same level appear in the same format?</t>
   </si>
   <si>
     <t>USABILITY</t>
@@ -600,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,7 +604,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="J35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -784,7 +777,7 @@
     <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -793,7 +786,7 @@
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="6"/>
@@ -804,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>6</v>
@@ -817,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>6</v>
@@ -830,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>6</v>
@@ -843,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>6</v>
@@ -856,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>6</v>
@@ -869,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>6</v>
@@ -882,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>6</v>
@@ -893,7 +886,7 @@
     <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="6"/>
@@ -904,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>6</v>
@@ -917,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>6</v>
@@ -930,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>6</v>
@@ -943,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>6</v>
@@ -956,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>6</v>
@@ -969,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>6</v>
@@ -982,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>6</v>
@@ -995,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>6</v>
@@ -1006,7 +999,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="10"/>
@@ -1017,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="10"/>
@@ -1028,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>6</v>
@@ -1041,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>6</v>
@@ -1054,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>6</v>
@@ -1067,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>6</v>
@@ -1080,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>6</v>
@@ -1091,7 +1084,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C39" s="10">
         <v>25</v>
@@ -1117,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1284,7 @@
     <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1300,7 +1293,7 @@
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="6"/>
@@ -1311,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>6</v>
@@ -1324,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>6</v>
@@ -1337,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>6</v>
@@ -1350,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>6</v>
@@ -1363,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>6</v>
@@ -1376,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>6</v>
@@ -1389,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>6</v>
@@ -1400,7 +1393,7 @@
     <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="6"/>
@@ -1411,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>6</v>
@@ -1424,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>6</v>
@@ -1437,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>6</v>
@@ -1450,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>6</v>
@@ -1463,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>6</v>
@@ -1476,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>6</v>
@@ -1489,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>6</v>
@@ -1502,7 +1495,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>6</v>
@@ -1513,7 +1506,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="10"/>
@@ -1524,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="10"/>
@@ -1535,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>6</v>
@@ -1548,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>6</v>
@@ -1561,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>6</v>
@@ -1574,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>6</v>
@@ -1587,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>6</v>
@@ -1598,7 +1591,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C39" s="10">
         <v>31</v>
@@ -1624,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1791,7 @@
     <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1807,7 +1800,7 @@
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="6"/>
@@ -1818,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>6</v>
@@ -1831,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>6</v>
@@ -1844,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>6</v>
@@ -1857,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>6</v>
@@ -1870,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>6</v>
@@ -1883,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>6</v>
@@ -1896,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>6</v>
@@ -1907,7 +1900,7 @@
     <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="6"/>
@@ -1918,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>6</v>
@@ -1931,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>6</v>
@@ -1944,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>6</v>
@@ -1957,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>6</v>
@@ -1970,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>6</v>
@@ -1983,7 +1976,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>6</v>
@@ -1996,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>6</v>
@@ -2009,7 +2002,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>6</v>
@@ -2020,7 +2013,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="10"/>
@@ -2031,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="10"/>
@@ -2042,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>6</v>
@@ -2055,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>6</v>
@@ -2068,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>6</v>
@@ -2081,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>6</v>
@@ -2094,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>6</v>
@@ -2105,7 +2098,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C39" s="10">
         <v>31</v>
@@ -2131,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2305,7 +2298,7 @@
     <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2314,7 +2307,7 @@
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="6"/>
@@ -2325,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>6</v>
@@ -2338,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>6</v>
@@ -2351,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>6</v>
@@ -2364,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>6</v>
@@ -2377,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>6</v>
@@ -2390,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>6</v>
@@ -2403,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>6</v>
@@ -2414,7 +2407,7 @@
     <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="6"/>
@@ -2425,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>6</v>
@@ -2438,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>6</v>
@@ -2451,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>6</v>
@@ -2464,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>6</v>
@@ -2477,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>6</v>
@@ -2490,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>6</v>
@@ -2503,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>6</v>
@@ -2516,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>6</v>
@@ -2527,7 +2520,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="10"/>
@@ -2538,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="10"/>
@@ -2549,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>6</v>
@@ -2562,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>6</v>
@@ -2575,7 +2568,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>6</v>
@@ -2588,7 +2581,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>6</v>
@@ -2601,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>6</v>
@@ -2612,7 +2605,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C39" s="10">
         <v>24</v>
@@ -2636,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2812,7 +2805,7 @@
     <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2827,57 +2820,61 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="22" t="s">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>21</v>
@@ -2888,9 +2885,9 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>22</v>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>23</v>
@@ -2914,22 +2911,18 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>4</v>
-      </c>
-      <c r="B23" s="19" t="s">
+    <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>25</v>
@@ -2940,9 +2933,9 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>26</v>
@@ -2953,9 +2946,9 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>27</v>
@@ -2966,18 +2959,22 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="22" t="s">
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>4</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>29</v>
@@ -2990,7 +2987,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>30</v>
@@ -3003,7 +3000,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>31</v>
@@ -3014,9 +3011,9 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>32</v>
@@ -3028,34 +3025,28 @@
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>5</v>
-      </c>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="C32" s="21"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="C33" s="17"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>35</v>
@@ -3068,7 +3059,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>36</v>
@@ -3080,28 +3071,34 @@
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="8">
+        <v>4</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="21"/>
+      <c r="C36" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>39</v>
@@ -3113,78 +3110,25 @@
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>3</v>
-      </c>
+      <c r="A39" s="8"/>
       <c r="B39" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="C39" s="10">
+        <v>27</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
         <v>4</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>5</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>6</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="10">
-        <v>27</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B36:C36"/>
+  <mergeCells count="3">
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
